--- a/data/Inside Airbnb Data Dictionary.xlsx
+++ b/data/Inside Airbnb Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jlVV\Documentos\GitHub\House_price_Zurich_Airbnb\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F08B2-32F4-40C9-AC9F-0D9790AE562F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27BE04-D3AD-4329-B2A5-566E88BA1188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ListingAll" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="172">
   <si>
     <t>Data Dictionary for listings.csv detailed file</t>
   </si>
@@ -556,54 +556,6 @@
   </si>
   <si>
     <t>Host's description of the neighbourhood | DESCRIPCION BARRIO</t>
-  </si>
-  <si>
-    <t>BORRAR</t>
-  </si>
-  <si>
-    <t>RELLENAR CON MODA O ESO</t>
-  </si>
-  <si>
-    <t>DISTRITO</t>
-  </si>
-  <si>
-    <t>BOORAR</t>
-  </si>
-  <si>
-    <t>KNN</t>
-  </si>
-  <si>
-    <t>BORRAR ¡CUIDADO ANTES DE BORRAR!</t>
-  </si>
-  <si>
-    <t>SEPARA PALABRAS, AGRUPAR EN TIPOS</t>
-  </si>
-  <si>
-    <t>Reemplazar valores faltantes de 'price' con los valores de columna la columna 'price' en 'calendar.csv cuando valor de 'id' en 'listing_all.csv' es igual al valor de 'listing_id' en 'calendar.csv'</t>
-  </si>
-  <si>
-    <t>CALCULAR CON KNN TOMANDO DE REFERENCIA LA ZONA</t>
-  </si>
-  <si>
-    <t>MANTENER Y CRUZAR CON 'HAS AVALABILITY' y luego hacer grafica con columnas fechas y dsiponibilidad de CALENDAR</t>
-  </si>
-  <si>
-    <t>ver si antigüedad  tiene mejor reviews o es superhost o precio</t>
-  </si>
-  <si>
-    <t>Ver si mas nº de anuncios influye en las reviews generales, de comunicación y de limpieza</t>
-  </si>
-  <si>
-    <t>Influye en las reviews generales y en que haya mas disponibilidad despues de x días (available_x)</t>
-  </si>
-  <si>
-    <t>BARRIO | Ver 'precio', 'tipo de vivienda', 'reviews general'. Nos dice cómo es el barrio</t>
-  </si>
-  <si>
-    <t>Analizar palabras y ver que palabras mas se repiten</t>
-  </si>
-  <si>
-    <t>borrar de Listing las columnas host_name, host_location, host_about, host_acceptance_rate, host_thumbnail_url, host_picture_url, host_neighbourhood, host_listings_count, property_type, minimum_maximum_nights, maximum_maximum_nights, minimum_nights_avg_ntm, maximum_nights_avg_ntm, calendar_updated, first_review, last_review, license</t>
   </si>
 </sst>
 </file>
@@ -900,13 +852,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1880341</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>123529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1880701</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>123889</xdr:rowOff>
     </xdr:to>
@@ -1247,31 +1199,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="8" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="4" max="5" width="38.28515625" customWidth="1"/>
-    <col min="6" max="6" width="70.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1279,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1239,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1247,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1303,17 +1255,15 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1326,12 +1276,11 @@
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1343,9 +1292,8 @@
         <v>12</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1357,9 +1305,8 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1373,9 +1320,8 @@
         <v>18</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1388,12 +1334,9 @@
       <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1405,9 +1348,8 @@
         <v>23</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1418,12 +1360,9 @@
       <c r="D14" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1434,12 +1373,9 @@
       <c r="D15" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1450,12 +1386,9 @@
       <c r="D16" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1467,9 +1400,8 @@
         <v>28</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1481,9 +1413,8 @@
         <v>30</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -1497,9 +1428,8 @@
         <v>32</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
@@ -1510,12 +1440,9 @@
       <c r="D20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1526,12 +1453,9 @@
       <c r="D21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
@@ -1542,12 +1466,9 @@
       <c r="D22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
@@ -1558,36 +1479,27 @@
       <c r="D23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -1596,12 +1508,9 @@
       <c r="D26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>46</v>
       </c>
@@ -1610,12 +1519,9 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
@@ -1624,12 +1530,9 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>49</v>
       </c>
@@ -1638,12 +1541,9 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>50</v>
       </c>
@@ -1652,12 +1552,9 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
@@ -1668,12 +1565,9 @@
       <c r="D31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>53</v>
       </c>
@@ -1684,12 +1578,9 @@
       <c r="D32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>54</v>
       </c>
@@ -1697,9 +1588,8 @@
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>55</v>
       </c>
@@ -1708,12 +1598,9 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>56</v>
       </c>
@@ -1722,12 +1609,9 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>57</v>
       </c>
@@ -1736,12 +1620,9 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>58</v>
       </c>
@@ -1754,12 +1635,9 @@
       <c r="D37" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>60</v>
       </c>
@@ -1772,12 +1650,9 @@
       <c r="D38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>62</v>
       </c>
@@ -1789,9 +1664,8 @@
         <v>64</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>65</v>
       </c>
@@ -1803,9 +1677,8 @@
         <v>64</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
@@ -1816,12 +1689,9 @@
       <c r="D41" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>68</v>
       </c>
@@ -1832,12 +1702,11 @@
       <c r="D42" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>71</v>
       </c>
@@ -1849,9 +1718,8 @@
         <v>72</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>73</v>
       </c>
@@ -1862,12 +1730,9 @@
       <c r="D44" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>75</v>
       </c>
@@ -1878,12 +1743,9 @@
       <c r="D45" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>78</v>
       </c>
@@ -1894,12 +1756,9 @@
       <c r="D46" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>80</v>
       </c>
@@ -1910,12 +1769,9 @@
       <c r="D47" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>82</v>
       </c>
@@ -1924,12 +1780,9 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>84</v>
       </c>
@@ -1941,9 +1794,8 @@
         <v>86</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>87</v>
       </c>
@@ -1955,9 +1807,8 @@
         <v>88</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>89</v>
       </c>
@@ -1969,9 +1820,8 @@
         <v>90</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>91</v>
       </c>
@@ -1985,9 +1835,8 @@
         <v>92</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>93</v>
       </c>
@@ -2001,9 +1850,8 @@
         <v>94</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>95</v>
       </c>
@@ -2016,12 +1864,9 @@
       <c r="D54" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>97</v>
       </c>
@@ -2034,12 +1879,9 @@
       <c r="D55" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>99</v>
       </c>
@@ -2052,12 +1894,9 @@
       <c r="D56" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>101</v>
       </c>
@@ -2070,12 +1909,9 @@
       <c r="D57" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>103</v>
       </c>
@@ -2084,12 +1920,9 @@
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>104</v>
       </c>
@@ -2100,12 +1933,9 @@
       <c r="D59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>107</v>
       </c>
@@ -2119,9 +1949,8 @@
         <v>108</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>109</v>
       </c>
@@ -2135,9 +1964,8 @@
         <v>108</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>110</v>
       </c>
@@ -2151,9 +1979,8 @@
         <v>108</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>111</v>
       </c>
@@ -2167,9 +1994,8 @@
         <v>108</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>112</v>
       </c>
@@ -2179,9 +2005,8 @@
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>113</v>
       </c>
@@ -2193,9 +2018,8 @@
         <v>114</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>115</v>
       </c>
@@ -2209,9 +2033,8 @@
         <v>116</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>117</v>
       </c>
@@ -2225,9 +2048,8 @@
         <v>118</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>119</v>
       </c>
@@ -2240,12 +2062,9 @@
       <c r="D68" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>121</v>
       </c>
@@ -2258,26 +2077,17 @@
       <c r="D69" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F70" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>124</v>
       </c>
@@ -2285,9 +2095,8 @@
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>125</v>
       </c>
@@ -2295,9 +2104,8 @@
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>126</v>
       </c>
@@ -2305,9 +2113,8 @@
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>127</v>
       </c>
@@ -2315,9 +2122,8 @@
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>128</v>
       </c>
@@ -2325,9 +2131,8 @@
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>129</v>
       </c>
@@ -2335,9 +2140,8 @@
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>130</v>
       </c>
@@ -2348,12 +2152,9 @@
       <c r="D77" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>132</v>
       </c>
@@ -2365,11 +2166,8 @@
         <v>133</v>
       </c>
       <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>134</v>
       </c>
@@ -2383,9 +2181,8 @@
         <v>135</v>
       </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>136</v>
       </c>
@@ -2399,9 +2196,8 @@
         <v>137</v>
       </c>
       <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>138</v>
       </c>
@@ -2415,9 +2211,8 @@
         <v>139</v>
       </c>
       <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>140</v>
       </c>
@@ -2431,9 +2226,8 @@
         <v>141</v>
       </c>
       <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>142</v>
       </c>
@@ -2447,14 +2241,13 @@
         <v>143</v>
       </c>
       <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>6</v>
       </c>
@@ -2462,7 +2255,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>22</v>
       </c>
@@ -2470,15 +2263,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
